--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -674,12 +674,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -737,7 +743,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -770,6 +776,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -797,10 +811,10 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1007,7 +1021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -1017,37 +1031,37 @@
       <c r="C6" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1105,7 +1119,7 @@
       <c r="C8" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1495,10 +1509,10 @@
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="9" t="b">
+      <c r="B17" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="9" t="b">
+      <c r="C17" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -139,6 +139,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Brazil is the 5</t>
     </r>
@@ -148,6 +149,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -156,6 +158,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> largest country</t>
     </r>
@@ -305,23 +308,7 @@
     <t xml:space="preserve">Seven countries border the black sea</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Picture of the black sea </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">coastline</t>
-    </r>
+    <t xml:space="preserve">Picture of the black sea coastline</t>
   </si>
   <si>
     <t xml:space="preserve">Picture of the Mississippi river</t>
@@ -339,23 +326,7 @@
     <t xml:space="preserve">Length of coastline along the Caspian sea for bordering countries</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ancient map of the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Black Sea</t>
-    </r>
+    <t xml:space="preserve">Ancient map of the Black Sea</t>
   </si>
   <si>
     <t xml:space="preserve">Map of Africa</t>
@@ -379,10 +350,10 @@
     <t xml:space="preserve">Japanese cherry tree</t>
   </si>
   <si>
-    <t xml:space="preserve">Bar Chart of Qatar’s natural resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar chart of Japan’s resources</t>
+    <t xml:space="preserve">Bar Chart of Qatar’s imports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar chart of Japan’s imports</t>
   </si>
   <si>
     <t xml:space="preserve">Chart of Middle Eastern countries gender discrepancies</t>
@@ -445,23 +416,7 @@
     <t xml:space="preserve">Over 95% of Belgium’s population lives in Urban areas</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Picture of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Antwerp</t>
-    </r>
+    <t xml:space="preserve">Picture of Antwerp</t>
   </si>
   <si>
     <t xml:space="preserve">Picture of pencil</t>
@@ -645,6 +600,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -666,12 +622,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -743,7 +701,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -788,6 +746,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -811,24 +773,24 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.3214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.0867346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.3469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="25.0102040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="11.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="11.6071428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,6 +835,8 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1025,10 +989,12 @@
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6" t="b">
+      <c r="B6" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="b">
+      <c r="C6" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1065,29 +1031,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="6" t="b">
+      <c r="B7" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="b">
+      <c r="C7" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -1113,10 +1081,12 @@
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="6" t="b">
+      <c r="B8" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="b">
+      <c r="C8" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -1157,10 +1127,12 @@
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="6" t="b">
+      <c r="B9" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="b">
+      <c r="C9" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1201,10 +1173,12 @@
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="6" t="b">
+      <c r="B10" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="b">
+      <c r="C10" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1245,13 +1219,15 @@
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="6" t="b">
+      <c r="B11" s="6" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="b">
+      <c r="C11" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1269,7 +1245,7 @@
       <c r="I11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" s="11" t="s">
         <v>92</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1289,10 +1265,12 @@
       <c r="A12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="6" t="b">
+      <c r="B12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C12" s="7" t="b">
+      <c r="C12" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1333,10 +1311,12 @@
       <c r="A13" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="6" t="b">
+      <c r="B13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C13" s="7" t="b">
+      <c r="C13" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1377,13 +1357,15 @@
       <c r="A14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="6" t="b">
+      <c r="B14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C14" s="7" t="b">
+      <c r="C14" s="7" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="10" t="s">
         <v>122</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1421,10 +1403,12 @@
       <c r="A15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B15" s="6" t="b">
+      <c r="B15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C15" s="7" t="b">
+      <c r="C15" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1465,10 +1449,12 @@
       <c r="A16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B16" s="6" t="b">
+      <c r="B16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C16" s="7" t="b">
+      <c r="C16" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1509,10 +1495,12 @@
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="11" t="b">
+      <c r="B17" s="12" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C17" s="11" t="b">
+      <c r="C17" s="12" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1552,9 +1540,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" display="Picture of waterfall in paraguay"/>
-    <hyperlink ref="D11" r:id="rId2" display="coastline"/>
-    <hyperlink ref="J11" r:id="rId3" display="Black Sea"/>
-    <hyperlink ref="D14" r:id="rId4" display="Antwerp"/>
+    <hyperlink ref="D11" r:id="rId2" display="Picture of the black sea coastline"/>
+    <hyperlink ref="J11" r:id="rId3" display="Ancient map of the Black Sea"/>
+    <hyperlink ref="D14" r:id="rId4" display="Picture of Antwerp"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1579,15 +1567,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="29.5612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="11" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="11" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="11" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
       <c r="B1" s="3"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1607,7 +1596,7 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1629,7 +1618,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1651,7 +1640,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1677,7 +1666,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1701,6 +1690,7 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
       <c r="B6" s="3" t="s">
         <v>176</v>
       </c>
@@ -1718,7 +1708,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1740,7 +1730,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1762,7 +1752,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1803,7 +1793,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -701,7 +701,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -742,6 +742,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -773,10 +777,10 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1058,26 +1062,26 @@
       <c r="H7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="24.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>49</v>
       </c>
@@ -1092,34 +1096,34 @@
       <c r="D8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1227,7 +1231,7 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1245,7 +1249,7 @@
       <c r="I11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>92</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1365,7 +1369,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>122</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1495,11 +1499,11 @@
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="12" t="n">
+      <c r="B17" s="13" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C17" s="12" t="n">
+      <c r="C17" s="13" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1567,12 +1571,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="11" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="11" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="11" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="29.5612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="12" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="12" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1596,7 +1600,7 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1618,7 +1622,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1640,7 +1644,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1666,7 +1670,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="12" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1708,7 +1712,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1730,7 +1734,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="12" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1752,7 +1756,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="12" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">St Basil’s Cathedral</t>
   </si>
   <si>
-    <t xml:space="preserve">Picture of python</t>
+    <t xml:space="preserve">Picture of Elephant</t>
   </si>
   <si>
     <t xml:space="preserve">Russia ethnic makeup bar chart</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">coastal border bar chart – top 10 countries</t>
   </si>
   <si>
-    <t xml:space="preserve">Bar chart of coastal borders of north American countries</t>
+    <t xml:space="preserve">Bar chart of coastal borders of Asian countries</t>
   </si>
   <si>
     <t xml:space="preserve">Map of St. Petersburg</t>
@@ -269,19 +269,19 @@
     <t xml:space="preserve">Map of Northern and Southern Hemispheres w/ coastal borders highlighted</t>
   </si>
   <si>
-    <t xml:space="preserve">Swaziland only borders one country</t>
+    <t xml:space="preserve">Swaziland (Eswatini) only borders one country</t>
   </si>
   <si>
     <t xml:space="preserve">Picture of the king of swaziland</t>
   </si>
   <si>
-    <t xml:space="preserve">Picture of the Washington Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar Chart of exports of Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar chart of exports of Canada</t>
+    <t xml:space="preserve">Picture of a hockey player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar chart of age of residents of Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar chart of age of residents of Canada</t>
   </si>
   <si>
     <t xml:space="preserve">Bar chart of coastal and land borders of Swaziland</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">Picture of the black sea coastline</t>
   </si>
   <si>
-    <t xml:space="preserve">Picture of the Mississippi river</t>
+    <t xml:space="preserve">Picture of the Nile river</t>
   </si>
   <si>
     <t xml:space="preserve">Salinity of bodies of water</t>
@@ -746,12 +746,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -777,24 +777,24 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,7 +1127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="44.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1139,41 +1139,41 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -1185,41 +1185,41 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
@@ -1231,16 +1231,16 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>89</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1249,7 +1249,7 @@
       <c r="I11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>92</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1369,7 +1369,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1571,12 +1571,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="12" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="12" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="29.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="11" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="11" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="11" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,7 +1600,7 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1622,7 +1622,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1644,7 +1644,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1670,7 +1670,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1712,7 +1712,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1734,7 +1734,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1756,7 +1756,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
@@ -139,7 +139,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Brazil is the 5</t>
     </r>
@@ -149,7 +148,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -158,7 +156,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> largest country</t>
     </r>
@@ -239,7 +236,7 @@
     <t xml:space="preserve">St Basil’s Cathedral</t>
   </si>
   <si>
-    <t xml:space="preserve">Picture of python</t>
+    <t xml:space="preserve">Picture of Elephant</t>
   </si>
   <si>
     <t xml:space="preserve">Russia ethnic makeup bar chart</t>
@@ -251,7 +248,7 @@
     <t xml:space="preserve">coastal border bar chart – top 10 countries</t>
   </si>
   <si>
-    <t xml:space="preserve">Bar chart of coastal borders of north American countries</t>
+    <t xml:space="preserve">Bar chart of coastal borders of Asian countries</t>
   </si>
   <si>
     <t xml:space="preserve">Map of St. Petersburg</t>
@@ -269,19 +266,19 @@
     <t xml:space="preserve">Map of Northern and Southern Hemispheres w/ coastal borders highlighted</t>
   </si>
   <si>
-    <t xml:space="preserve">Swaziland only borders one country</t>
+    <t xml:space="preserve">Swaziland (Eswatini) only borders one country</t>
   </si>
   <si>
     <t xml:space="preserve">Picture of the king of swaziland</t>
   </si>
   <si>
-    <t xml:space="preserve">Picture of the Washington Monument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar Chart of exports of Swaziland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar chart of exports of Canada</t>
+    <t xml:space="preserve">Picture of a hockey player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar chart of age of residents of Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar chart of age of residents of Canada</t>
   </si>
   <si>
     <t xml:space="preserve">Bar chart of coastal and land borders of Swaziland</t>
@@ -311,7 +308,7 @@
     <t xml:space="preserve">Picture of the black sea coastline</t>
   </si>
   <si>
-    <t xml:space="preserve">Picture of the Mississippi river</t>
+    <t xml:space="preserve">Picture of the Nile river</t>
   </si>
   <si>
     <t xml:space="preserve">Salinity of bodies of water</t>
@@ -323,7 +320,7 @@
     <t xml:space="preserve">Coastal border of countries near the black Sea</t>
   </si>
   <si>
-    <t xml:space="preserve">Length of coastline along the Caspian sea for bordering countries</t>
+    <t xml:space="preserve">Length of coastline along the Red sea for bordering countries</t>
   </si>
   <si>
     <t xml:space="preserve">Ancient map of the Black Sea</t>
@@ -335,7 +332,7 @@
     <t xml:space="preserve">Satellite map of the Black Sea</t>
   </si>
   <si>
-    <t xml:space="preserve">Map of Caspian Sea</t>
+    <t xml:space="preserve">Map of Red Sea</t>
   </si>
   <si>
     <t xml:space="preserve">Map of Black Sea with labeled countries</t>
@@ -600,7 +597,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -622,14 +618,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -701,7 +695,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -746,16 +740,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -778,23 +776,23 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,7 +1125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1139,41 +1137,41 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -1185,41 +1183,41 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="34.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>85</v>
       </c>
@@ -1231,41 +1229,41 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="91.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="69.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>97</v>
       </c>
@@ -1311,7 +1309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="58.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>109</v>
       </c>
@@ -1369,7 +1367,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1571,12 +1569,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="12" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="12" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="12" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="14" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,7 +1598,7 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="14" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1622,7 +1620,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1644,7 +1642,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1670,7 +1668,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1712,7 +1710,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1734,7 +1732,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1756,7 +1754,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -344,7 +344,7 @@
     <t xml:space="preserve">Doha, Qatar skyline</t>
   </si>
   <si>
-    <t xml:space="preserve">Japanese cherry tree</t>
+    <t xml:space="preserve">Tokyo skyline</t>
   </si>
   <si>
     <t xml:space="preserve">Bar Chart of Qatar’s imports</t>
@@ -775,10 +775,10 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1275,37 +1275,37 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="8" t="s">
         <v>108</v>
       </c>
     </row>

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -380,7 +380,7 @@
     <t xml:space="preserve">Hydroelectric dam</t>
   </si>
   <si>
-    <t xml:space="preserve">Picture of french fries</t>
+    <t xml:space="preserve">Picture of Danube river</t>
   </si>
   <si>
     <t xml:space="preserve">Population of South American Countries Bar Chart</t>
@@ -776,9 +776,9 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1321,37 +1321,37 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="8" t="s">
         <v>120</v>
       </c>
     </row>

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -139,6 +139,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Brazil is the 5</t>
     </r>
@@ -148,6 +149,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">th</t>
     </r>
@@ -156,6 +158,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> largest country</t>
     </r>
@@ -597,6 +600,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -618,12 +622,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -775,24 +781,24 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="10.8010204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,7 +1407,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>133</v>
       </c>
@@ -1413,37 +1419,37 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1569,12 +1575,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="14" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="14" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -781,24 +781,24 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D16" activeCellId="0" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,7 +1453,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="58.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>145</v>
       </c>
@@ -1465,10 +1465,10 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="8" t="s">
         <v>147</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -1570,17 +1570,17 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="1" sqref="D16:E16 I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.5"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="14" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="14" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -781,24 +781,24 @@
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.5663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,7 +1453,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="58.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>145</v>
       </c>
@@ -1465,37 +1465,37 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.5"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="14" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="14" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -784,21 +784,21 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="P24" activeCellId="0" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="1" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1499,7 +1499,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="46.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
@@ -1511,37 +1511,37 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="9" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="14" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="14" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/List of Facts.xlsx
+++ b/List of Facts.xlsx
@@ -416,10 +416,10 @@
     <t xml:space="preserve">Over 95% of Belgium’s population lives in Urban areas</t>
   </si>
   <si>
-    <t xml:space="preserve">Picture of Antwerp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picture of pencil</t>
+    <t xml:space="preserve">Picture of Brussels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picture of Coliseum</t>
   </si>
   <si>
     <t xml:space="preserve">Population distribution of Belgium</t>
@@ -701,7 +701,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -750,10 +750,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -782,9 +778,9 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="P24" activeCellId="0" sqref="P24"/>
+      <selection pane="bottomLeft" activeCell="M14" activeCellId="0" sqref="L14:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1361,7 +1357,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>121</v>
       </c>
@@ -1373,34 +1369,34 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="8" t="s">
         <v>131</v>
       </c>
       <c r="N14" s="3" t="s">
@@ -1503,11 +1499,11 @@
       <c r="A17" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="12" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="12" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1550,7 +1546,6 @@
     <hyperlink ref="D8" r:id="rId1" display="Picture of waterfall in paraguay"/>
     <hyperlink ref="D11" r:id="rId2" display="Picture of the black sea coastline"/>
     <hyperlink ref="J11" r:id="rId3" display="Ancient map of the Black Sea"/>
-    <hyperlink ref="D14" r:id="rId4" display="Picture of Antwerp"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1570,17 +1565,17 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="1" sqref="L14:M14 I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="14" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="14" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="4" style="14" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="14" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="4" style="13" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="13" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="13" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +1599,7 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="13" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1626,7 +1621,7 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="13" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1648,7 +1643,7 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="13" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1674,7 +1669,7 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1716,7 +1711,7 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
+      <c r="A7" s="13" t="n">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1738,7 +1733,7 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="13" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1760,7 +1755,7 @@
       <c r="J8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="13" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
